--- a/pred_ohlcv/54_21/2020-01-16 ITC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 ITC ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>10562.88602881206</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>23132.89762881206</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -600,7 +600,7 @@
         <v>22727.03092881206</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>22727.03092881206</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>23743.03092881206</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -782,7 +782,7 @@
         <v>23397.03092881206</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>23424.03092881206</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -990,7 +990,7 @@
         <v>24224.20792881206</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>24224.20792881206</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>24224.20792881206</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>24224.20792881206</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>24224.20792881206</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>24196.52812881206</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>24696.52812881206</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>24696.52812881206</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>24696.52812881206</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>24696.52812881206</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>24946.52812881206</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>24946.52812881206</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>24946.52812881206</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>24946.52812881206</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>24946.52812881206</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>26359.78562881206</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>26359.78562881206</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>11359.00622881206</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>11359.00622881206</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>16639.25542881206</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>49147.78627272184</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>52893.65947272184</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>64417.42936993988</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>64446.42936993988</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>64696.42936993988</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>88245.34506993988</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>174139.6331699399</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>174667.6331699399</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>174547.6331699399</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>175047.6331699399</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>175797.6331699399</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>175797.6331699399</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>175801.6331699399</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>179001.6331699399</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>238252.1493699399</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>238493.1896652215</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>238493.1896652215</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>238493.1896652215</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>221696.7025652215</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>221079.9016652215</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>228856.2741652215</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>228856.2741652215</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>228856.2741652215</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>228856.2741652215</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-16 ITC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 ITC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>10557.88602881206</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>10562.88602881206</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>23132.89762881206</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>23132.89762881206</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>23132.89762881206</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>22727.03092881206</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>22727.03092881206</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>22727.03092881206</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>23743.03092881206</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>23743.03092881206</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>23743.03092881206</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>23743.03092881206</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>23397.03092881206</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>23397.03092881206</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>23424.03092881206</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>23424.03092881206</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>23394.12292881206</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -912,7 +912,7 @@
         <v>24224.20792881206</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>24224.20792881206</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>24224.20792881206</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>24224.20792881206</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>24224.20792881206</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>24224.20792881206</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>24224.20792881206</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>24196.52812881206</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>24696.52812881206</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>24696.52812881206</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>24696.52812881206</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>24696.52812881206</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>24946.52812881206</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>24946.52812881206</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>24946.52812881206</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>24946.52812881206</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>24946.52812881206</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>26359.78562881206</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>26359.78562881206</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>11359.00622881206</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>11359.00622881206</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>12190.00622881206</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>16639.25542881206</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>16639.25542881206</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>49147.78627272184</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>52893.65947272184</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>64417.42936993988</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>64446.42936993988</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>64696.42936993988</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>88245.34506993988</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>141536.9717032732</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>151396.8924699399</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>152058.8924699399</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>151749.0781699399</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>151749.0781699399</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>158567.0331699399</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>156279.8020699398</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>159279.8020699398</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>157895.4948699398</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>156387.5674699399</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>155582.6747699399</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>157361.0661699398</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>159362.0661699398</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>159308.0122699398</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>159308.0122699398</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>174139.6331699399</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>174667.6331699399</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>174547.6331699399</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>175047.6331699399</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>175797.6331699399</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>175797.6331699399</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>175801.6331699399</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>179001.6331699399</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>227312.7659699399</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>239232.7659699399</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>239125.9059699399</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>239125.9059699399</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>238252.1493699399</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>238252.1493699399</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>233502.9219699399</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>232937.9219699399</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>238058.3251699399</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>232793.9757699399</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>232797.9757699399</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>232550.7226699399</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>232550.7226699399</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>232550.7226699399</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>241338.0889457971</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>238338.0889457971</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>238493.1896652215</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>238493.1896652215</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>238493.1896652215</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>221696.7025652215</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>221079.9016652215</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>228856.2741652215</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>228856.2741652215</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>228856.2741652215</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>228856.2741652215</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
